--- a/TechieDelight/DT_Parametria_HB_Activities.xlsx
+++ b/TechieDelight/DT_Parametria_HB_Activities.xlsx
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="367">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
@@ -1378,9 +1378,6 @@
     <t xml:space="preserve">Destino (Base GPN o Bcos: BER,BSJ,BSC,BSF)</t>
   </si>
   <si>
-    <t xml:space="preserve">UNISYS (BSJ,BER,BSC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descripcion de la tabla</t>
   </si>
   <si>
@@ -1451,6 +1448,18 @@
   </si>
   <si>
     <t xml:space="preserve">Param_activities_manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transaccional_Modo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo_de_ambiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo_Proveedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EndPoint_Nombre del metodo</t>
   </si>
   <si>
     <t xml:space="preserve">3. ZONA CURADA</t>
@@ -1541,9 +1550,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tipo_ambiente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tipo_Proveedor</t>
   </si>
   <si>
     <t xml:space="preserve">Método</t>
@@ -1868,6 +1874,9 @@
   </si>
   <si>
     <t xml:space="preserve">DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNISYS (BSJ,BER,BSC)</t>
   </si>
   <si>
     <t xml:space="preserve">TIMESTAMP</t>
@@ -4953,9 +4962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>113760</xdr:colOff>
+      <xdr:colOff>113400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4965,7 +4974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="191520" y="2514600"/>
-          <a:ext cx="1076400" cy="1980360"/>
+          <a:ext cx="1076040" cy="1980000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5060,9 +5069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>256680</xdr:colOff>
+      <xdr:colOff>256320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5072,7 +5081,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1354320" y="2514600"/>
-          <a:ext cx="1076400" cy="1980360"/>
+          <a:ext cx="1076040" cy="1980000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5186,9 +5195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5198,7 +5207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2507400" y="2514600"/>
-          <a:ext cx="1076400" cy="1980360"/>
+          <a:ext cx="1076040" cy="1980000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5312,9 +5321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5324,7 +5333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3660480" y="2514600"/>
-          <a:ext cx="1076400" cy="1990080"/>
+          <a:ext cx="1076040" cy="1989720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5419,9 +5428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>666000</xdr:colOff>
+      <xdr:colOff>665640</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5431,7 +5440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4823280" y="2514600"/>
-          <a:ext cx="1076040" cy="1980360"/>
+          <a:ext cx="1075680" cy="1980000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5526,9 +5535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>513720</xdr:colOff>
+      <xdr:colOff>513360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5538,7 +5547,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="191520" y="4514760"/>
-          <a:ext cx="4536000" cy="485640"/>
+          <a:ext cx="4535640" cy="485280"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5603,9 +5612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2148840</xdr:colOff>
+      <xdr:colOff>2148480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5619,7 +5628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="986040" y="1945440"/>
-          <a:ext cx="11784240" cy="2216880"/>
+          <a:ext cx="11784600" cy="2216520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5641,11 +5650,11 @@
   </sheetPr>
   <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="93.63"/>
@@ -5804,27 +5813,27 @@
   </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="30.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="30.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="27.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="39.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="31.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="20.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="147" width="14.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="218" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="218"/>
       <c r="C1" s="218"/>
@@ -5861,13 +5870,13 @@
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="182" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B4" s="202"/>
       <c r="C4" s="202"/>
       <c r="D4" s="202"/>
       <c r="E4" s="150" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F4" s="183"/>
       <c r="G4" s="183"/>
@@ -5876,13 +5885,13 @@
     </row>
     <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B5" s="203"/>
       <c r="C5" s="203"/>
       <c r="D5" s="203"/>
       <c r="E5" s="150" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F5" s="184"/>
       <c r="G5" s="184"/>
@@ -5891,13 +5900,13 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="182" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B6" s="203"/>
       <c r="C6" s="203"/>
       <c r="D6" s="203"/>
       <c r="E6" s="150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F6" s="184"/>
       <c r="G6" s="184"/>
@@ -5906,7 +5915,7 @@
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="185" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B7" s="221"/>
       <c r="C7" s="221"/>
@@ -5925,7 +5934,7 @@
       <c r="C8" s="223"/>
       <c r="D8" s="223"/>
       <c r="E8" s="150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F8" s="224"/>
       <c r="G8" s="224"/>
@@ -5934,43 +5943,43 @@
     </row>
     <row r="9" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9" s="156" t="s">
         <v>113</v>
       </c>
       <c r="C9" s="157" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D9" s="157" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E9" s="157" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F9" s="157" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G9" s="157" t="s">
         <v>118</v>
       </c>
       <c r="H9" s="157" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I9" s="158" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" s="162" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="155"/>
       <c r="B10" s="187" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C10" s="188" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D10" s="188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E10" s="188" t="s">
         <v>122</v>
@@ -5982,15 +5991,15 @@
         <v>125</v>
       </c>
       <c r="H10" s="188" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I10" s="189" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11" s="211"/>
       <c r="C11" s="212"/>
@@ -6535,27 +6544,27 @@
   </sheetPr>
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.63"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="243" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C2" s="243"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="244" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C3" s="244" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6595,11 +6604,11 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.91"/>
@@ -6637,7 +6646,7 @@
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="250"/>
       <c r="B2" s="251" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C2" s="251"/>
       <c r="D2" s="251"/>
@@ -6695,19 +6704,19 @@
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="250"/>
       <c r="B4" s="254" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C4" s="255" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D4" s="255" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E4" s="255" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F4" s="256" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G4" s="252"/>
       <c r="H4" s="248"/>
@@ -6736,16 +6745,16 @@
         <v>44378</v>
       </c>
       <c r="C5" s="258" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D5" s="259" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E5" s="260" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F5" s="261" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G5" s="252"/>
       <c r="H5" s="248"/>
@@ -34649,13 +34658,13 @@
   </sheetPr>
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.640625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.36"/>
@@ -34663,42 +34672,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="269" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C1" s="270" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E1" s="270" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G1" s="270" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I1" s="270" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K1" s="270" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M1" s="270" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O1" s="270" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q1" s="271" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C2" s="272" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G2" s="272" t="s">
         <v>60</v>
@@ -34707,82 +34716,82 @@
         <v>78</v>
       </c>
       <c r="K2" s="272" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M2" s="272" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="O2" s="272" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q2" s="273" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C3" s="272" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G3" s="272" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="I3" s="272" t="s">
         <v>86</v>
       </c>
       <c r="K3" s="272" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M3" s="272" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O3" s="272" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q3" s="273" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C4" s="272" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="I4" s="272" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K4" s="272" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M4" s="272" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O4" s="272" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="273" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C5" s="272" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="I5" s="272" t="s">
         <v>87</v>
@@ -34791,52 +34800,52 @@
         <v>103</v>
       </c>
       <c r="M5" s="272" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O5" s="272" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="273" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C6" s="272" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I6" s="272" t="s">
         <v>88</v>
       </c>
       <c r="K6" s="272" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M6" s="272" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O6" s="272" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q6" s="273"/>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C7" s="272" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E7" s="272"/>
       <c r="I7" s="272" t="s">
         <v>89</v>
       </c>
       <c r="K7" s="272" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M7" s="272" t="s">
         <v>107</v>
@@ -34844,15 +34853,15 @@
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I8" s="273" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="I9" s="272" t="s">
         <v>93</v>
@@ -34860,119 +34869,119 @@
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C11" s="270" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D11" s="270" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="272" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D12" s="272" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="272" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" s="272" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="272" t="s">
         <v>353</v>
       </c>
-      <c r="C14" s="272" t="s">
-        <v>350</v>
-      </c>
       <c r="D14" s="272" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E14" s="272" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C15" s="272" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D15" s="272" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C16" s="272" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D16" s="272" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C17" s="272" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D17" s="272" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C18" s="272" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D18" s="272" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C19" s="272" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D19" s="272" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="274" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34983,7 +34992,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="275" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C25" s="272"/>
     </row>
@@ -35016,7 +35025,7 @@
   </sheetPr>
   <dimension ref="B1:AP1004"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -36435,7 +36444,7 @@
   </sheetPr>
   <dimension ref="B1:M983"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -36443,7 +36452,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="1.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="29.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="29.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="18" width="15.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="18" width="14.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="18" width="6.09"/>
@@ -37603,7 +37612,7 @@
   </sheetPr>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -37613,7 +37622,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="62" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="62" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="62" width="14.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="62" width="46.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="62" width="46.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="62" width="14.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="62" width="13.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="62" width="17.36"/>
@@ -40296,8 +40305,8 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -40305,7 +40314,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="147" width="26.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="147" width="24.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="147" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="40.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="147" width="40.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="28.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="10.09"/>
@@ -40384,7 +40393,7 @@
         <v>184</v>
       </c>
       <c r="F5" s="153" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G5" s="153"/>
       <c r="H5" s="153"/>
@@ -40395,7 +40404,7 @@
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="126" t="s">
         <v>101</v>
@@ -40403,7 +40412,7 @@
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
       <c r="E6" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="154"/>
       <c r="G6" s="154"/>
@@ -40415,13 +40424,13 @@
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="156" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="157" t="s">
         <v>115</v>
@@ -40436,19 +40445,19 @@
         <v>118</v>
       </c>
       <c r="H7" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="157" t="s">
         <v>190</v>
       </c>
-      <c r="I7" s="157" t="s">
+      <c r="J7" s="157" t="s">
         <v>191</v>
-      </c>
-      <c r="J7" s="157" t="s">
-        <v>192</v>
       </c>
       <c r="K7" s="157" t="s">
         <v>119</v>
       </c>
       <c r="L7" s="158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" s="162" customFormat="true" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40457,7 +40466,7 @@
         <v>120</v>
       </c>
       <c r="C8" s="160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="160" t="s">
         <v>122</v>
@@ -40472,30 +40481,30 @@
         <v>125</v>
       </c>
       <c r="H8" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="I8" s="160" t="s">
         <v>195</v>
       </c>
-      <c r="I8" s="160" t="s">
+      <c r="J8" s="160" t="s">
         <v>196</v>
-      </c>
-      <c r="J8" s="160" t="s">
-        <v>197</v>
       </c>
       <c r="K8" s="160" t="s">
         <v>126</v>
       </c>
       <c r="L8" s="161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="138" t="s">
         <v>128</v>
       </c>
       <c r="C9" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D9" s="140" t="s">
         <v>130</v>
@@ -40520,7 +40529,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D10" s="140" t="s">
         <v>132</v>
@@ -40543,10 +40552,10 @@
         <v>56</v>
       </c>
       <c r="C11" s="164" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="140" t="s">
         <v>200</v>
-      </c>
-      <c r="D11" s="140" t="s">
-        <v>201</v>
       </c>
       <c r="E11" s="144"/>
       <c r="F11" s="144" t="n">
@@ -40568,7 +40577,7 @@
         <v>136</v>
       </c>
       <c r="C12" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="140" t="s">
         <v>137</v>
@@ -40593,7 +40602,7 @@
         <v>139</v>
       </c>
       <c r="C13" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="140" t="s">
         <v>140</v>
@@ -40618,7 +40627,7 @@
         <v>142</v>
       </c>
       <c r="C14" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" s="140" t="s">
         <v>144</v>
@@ -40641,7 +40650,7 @@
         <v>145</v>
       </c>
       <c r="C15" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D15" s="140" t="s">
         <v>146</v>
@@ -40666,7 +40675,7 @@
         <v>61</v>
       </c>
       <c r="C16" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="140" t="s">
         <v>147</v>
@@ -40687,24 +40696,24 @@
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="C17" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="C17" s="176" t="s">
+      <c r="D17" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="D17" s="176" t="s">
+      <c r="E17" s="176" t="s">
         <v>205</v>
-      </c>
-      <c r="E17" s="176" t="s">
-        <v>206</v>
       </c>
       <c r="F17" s="176"/>
       <c r="G17" s="176"/>
       <c r="H17" s="176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I17" s="176"/>
       <c r="J17" s="176"/>
@@ -40784,7 +40793,7 @@
         <v>180</v>
       </c>
       <c r="B22" s="149" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="149"/>
       <c r="D22" s="149"/>
@@ -40806,7 +40815,7 @@
         <v>182</v>
       </c>
       <c r="B23" s="179" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C23" s="179"/>
       <c r="D23" s="179"/>
@@ -40814,7 +40823,7 @@
         <v>184</v>
       </c>
       <c r="F23" s="153" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G23" s="153"/>
       <c r="H23" s="153"/>
@@ -40825,7 +40834,7 @@
     </row>
     <row r="24" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="124" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B24" s="126" t="s">
         <v>153</v>
@@ -40833,7 +40842,7 @@
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
       <c r="E24" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="154"/>
       <c r="G24" s="154"/>
@@ -40845,13 +40854,13 @@
     </row>
     <row r="25" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="156" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D25" s="157" t="s">
         <v>115</v>
@@ -40866,19 +40875,19 @@
         <v>118</v>
       </c>
       <c r="H25" s="157" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25" s="157" t="s">
         <v>190</v>
       </c>
-      <c r="I25" s="157" t="s">
+      <c r="J25" s="157" t="s">
         <v>191</v>
-      </c>
-      <c r="J25" s="157" t="s">
-        <v>192</v>
       </c>
       <c r="K25" s="157" t="s">
         <v>119</v>
       </c>
       <c r="L25" s="158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -40887,7 +40896,7 @@
         <v>120</v>
       </c>
       <c r="C26" s="160" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D26" s="160" t="s">
         <v>122</v>
@@ -40902,30 +40911,30 @@
         <v>125</v>
       </c>
       <c r="H26" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="I26" s="160" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="160" t="s">
+      <c r="J26" s="160" t="s">
         <v>196</v>
-      </c>
-      <c r="J26" s="160" t="s">
-        <v>197</v>
       </c>
       <c r="K26" s="160" t="s">
         <v>126</v>
       </c>
       <c r="L26" s="161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="138" t="s">
         <v>154</v>
       </c>
       <c r="C27" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D27" s="140" t="s">
         <v>130</v>
@@ -40948,10 +40957,10 @@
     <row r="28" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="167"/>
       <c r="B28" s="138" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="C28" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D28" s="140" t="s">
         <v>157</v>
@@ -40959,7 +40968,7 @@
       <c r="E28" s="144"/>
       <c r="F28" s="141" t="str">
         <f aca="false">+'1. Zona Landing'!F38</f>
-        <v>Transaccional </v>
+        <v>Transaccional</v>
       </c>
       <c r="G28" s="165" t="n">
         <f aca="false">+'1. Zona Landing'!G38</f>
@@ -40977,7 +40986,7 @@
         <v>159</v>
       </c>
       <c r="C29" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D29" s="140" t="s">
         <v>132</v>
@@ -41003,7 +41012,7 @@
         <v>161</v>
       </c>
       <c r="C30" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30" s="140" t="s">
         <v>162</v>
@@ -41026,10 +41035,10 @@
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="167"/>
       <c r="B31" s="138" t="s">
-        <v>164</v>
+        <v>210</v>
       </c>
       <c r="C31" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D31" s="140" t="s">
         <v>165</v>
@@ -41052,10 +41061,10 @@
     <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="167"/>
       <c r="B32" s="138" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="C32" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D32" s="140" t="s">
         <v>168</v>
@@ -41081,7 +41090,7 @@
         <v>170</v>
       </c>
       <c r="C33" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D33" s="140" t="s">
         <v>171</v>
@@ -41104,10 +41113,10 @@
     <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="167"/>
       <c r="B34" s="138" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="C34" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D34" s="140" t="s">
         <v>174</v>
@@ -41133,7 +41142,7 @@
         <v>111</v>
       </c>
       <c r="C35" s="164" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D35" s="140" t="s">
         <v>176</v>
@@ -41155,24 +41164,24 @@
     </row>
     <row r="36" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="B36" s="175" t="s">
+      <c r="C36" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="D36" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="D36" s="176" t="s">
+      <c r="E36" s="176" t="s">
         <v>205</v>
-      </c>
-      <c r="E36" s="176" t="s">
-        <v>206</v>
       </c>
       <c r="F36" s="176"/>
       <c r="G36" s="176"/>
       <c r="H36" s="176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I36" s="176"/>
       <c r="J36" s="176"/>
@@ -41320,8 +41329,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41333,7 +41342,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="40.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="17.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="147" width="14.45"/>
@@ -41341,7 +41350,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="180" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
@@ -41370,7 +41379,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="182" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B4" s="152" t="s">
         <v>183</v>
@@ -41378,7 +41387,7 @@
       <c r="C4" s="152"/>
       <c r="D4" s="152"/>
       <c r="E4" s="150" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F4" s="183" t="n">
         <v>1</v>
@@ -41390,10 +41399,10 @@
     </row>
     <row r="5" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C5" s="152"/>
       <c r="D5" s="152"/>
@@ -41401,7 +41410,7 @@
         <v>184</v>
       </c>
       <c r="F5" s="184" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G5" s="184"/>
       <c r="H5" s="184"/>
@@ -41410,7 +41419,7 @@
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="185" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B6" s="126" t="s">
         <v>101</v>
@@ -41418,7 +41427,7 @@
       <c r="C6" s="126"/>
       <c r="D6" s="126"/>
       <c r="E6" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F6" s="186"/>
       <c r="G6" s="186"/>
@@ -41428,46 +41437,46 @@
     </row>
     <row r="7" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="156" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="157" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D7" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E7" s="157" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F7" s="157" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G7" s="157" t="s">
         <v>118</v>
       </c>
       <c r="H7" s="157" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I7" s="157" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J7" s="158" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" s="162" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="155"/>
       <c r="B8" s="187" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C8" s="188" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D8" s="188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E8" s="188" t="s">
         <v>122</v>
@@ -41479,32 +41488,32 @@
         <v>125</v>
       </c>
       <c r="H8" s="188" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I8" s="188" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J8" s="189" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="138" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C9" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B9</f>
         <v>Param_BackOffice_activities_manual.ID_ACTIVITY</v>
       </c>
       <c r="D9" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E9" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D9</f>
-        <v>Id de la funcionalidad </v>
+        <v>Id de la funcionalidad</v>
       </c>
       <c r="F9" s="144"/>
       <c r="G9" s="172" t="n">
@@ -41512,21 +41521,21 @@
       </c>
       <c r="H9" s="193"/>
       <c r="I9" s="172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J9" s="194"/>
     </row>
     <row r="10" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="167"/>
       <c r="B10" s="138" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C10" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B10</f>
         <v>Param_BackOffice_activities_manual.DESCRIPCION</v>
       </c>
       <c r="D10" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D10</f>
@@ -41538,21 +41547,21 @@
       </c>
       <c r="H10" s="193"/>
       <c r="I10" s="172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J10" s="194"/>
     </row>
     <row r="11" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="167"/>
       <c r="B11" s="138" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C11" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B11</f>
         <v>Param_BackOffice_activities_manual.ENABLED</v>
       </c>
       <c r="D11" s="191" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E11" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D11</f>
@@ -41569,18 +41578,18 @@
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="167"/>
       <c r="B12" s="138" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C12" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B12</f>
         <v>Param_BackOffice_activities_manual.COMPONENT_FQN</v>
       </c>
       <c r="D12" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E12" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D12</f>
-        <v>Identificador interno de la plataforma </v>
+        <v>Identificador interno de la plataforma</v>
       </c>
       <c r="F12" s="144"/>
       <c r="G12" s="172" t="n">
@@ -41593,14 +41602,14 @@
     <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="167"/>
       <c r="B13" s="138" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C13" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B13</f>
         <v>Param_BackOffice_activities_manual.ID_PERMISSION_REQUIRED</v>
       </c>
       <c r="D13" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D13</f>
@@ -41617,14 +41626,14 @@
     <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="167"/>
       <c r="B14" s="138" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C14" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B14</f>
         <v>Param_BackOffice_activities_manual.ID_PERMISSION_APPROVAL</v>
       </c>
       <c r="D14" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D14</f>
@@ -41641,14 +41650,14 @@
     <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="167"/>
       <c r="B15" s="138" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C15" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B15</f>
         <v>Param_BackOffice_activities_manual.ID_GROUP</v>
       </c>
       <c r="D15" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D15</f>
@@ -41665,14 +41674,14 @@
     <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="167"/>
       <c r="B16" s="138" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C16" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B16</f>
         <v>Param_BackOffice_activities_manual.AUDITABLE</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>147</v>
@@ -41687,25 +41696,25 @@
     </row>
     <row r="17" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="195" t="s">
         <v>202</v>
-      </c>
-      <c r="B17" s="195" t="s">
-        <v>203</v>
       </c>
       <c r="C17" s="195"/>
       <c r="D17" s="196" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="E17" s="197" t="s">
+      <c r="F17" s="176" t="s">
         <v>205</v>
-      </c>
-      <c r="F17" s="176" t="s">
-        <v>206</v>
       </c>
       <c r="G17" s="176"/>
       <c r="H17" s="176"/>
       <c r="I17" s="176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J17" s="177"/>
       <c r="K17" s="178"/>
@@ -41766,15 +41775,15 @@
     </row>
     <row r="22" customFormat="false" ht="12.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="182" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B22" s="179" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="179"/>
       <c r="D22" s="179"/>
       <c r="E22" s="150" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F22" s="183" t="n">
         <v>1</v>
@@ -41786,10 +41795,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="182" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B23" s="152" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C23" s="152"/>
       <c r="D23" s="152"/>
@@ -41797,7 +41806,7 @@
         <v>184</v>
       </c>
       <c r="F23" s="184" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="G23" s="184"/>
       <c r="H23" s="184"/>
@@ -41806,7 +41815,7 @@
     </row>
     <row r="24" customFormat="false" ht="13" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="185" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B24" s="126" t="s">
         <v>153</v>
@@ -41814,7 +41823,7 @@
       <c r="C24" s="126"/>
       <c r="D24" s="126"/>
       <c r="E24" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F24" s="186"/>
       <c r="G24" s="186"/>
@@ -41824,46 +41833,46 @@
     </row>
     <row r="25" customFormat="false" ht="21.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="155" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B25" s="156" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="157" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D25" s="157" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E25" s="157" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F25" s="157" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G25" s="157" t="s">
         <v>118</v>
       </c>
       <c r="H25" s="157" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I25" s="157" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J25" s="158" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="155"/>
       <c r="B26" s="187" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C26" s="188" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D26" s="188" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E26" s="188" t="s">
         <v>122</v>
@@ -41875,32 +41884,32 @@
         <v>125</v>
       </c>
       <c r="H26" s="188" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I26" s="188" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J26" s="189" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B27" s="138" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C27" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B27</f>
         <v>Param_activities_manual.idActivity</v>
       </c>
       <c r="D27" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E27" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D27</f>
-        <v>Id de la funcionalidad </v>
+        <v>Id de la funcionalidad</v>
       </c>
       <c r="F27" s="144"/>
       <c r="G27" s="139" t="n">
@@ -41908,21 +41917,21 @@
       </c>
       <c r="H27" s="193"/>
       <c r="I27" s="172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J27" s="194"/>
     </row>
     <row r="28" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="167"/>
       <c r="B28" s="138" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C28" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B28</f>
-        <v>Param_activities_manual.Transaccional/Modo</v>
+        <v>Param_activities_manual.Transaccional_Modo</v>
       </c>
       <c r="D28" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E28" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D28</f>
@@ -41939,14 +41948,14 @@
     <row r="29" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="167"/>
       <c r="B29" s="138" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C29" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B29</f>
         <v>Param_activities_manual.Descripcion</v>
       </c>
       <c r="D29" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E29" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D29</f>
@@ -41958,7 +41967,7 @@
       </c>
       <c r="H29" s="193"/>
       <c r="I29" s="172" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J29" s="194"/>
     </row>
@@ -41969,10 +41978,10 @@
       </c>
       <c r="C30" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B30</f>
-        <v>Param_activities_manual.Grupo </v>
+        <v>Param_activities_manual.Grupo</v>
       </c>
       <c r="D30" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D30</f>
@@ -41989,14 +41998,14 @@
     <row r="31" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="167"/>
       <c r="B31" s="138" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C31" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B31</f>
-        <v>Param_activities_manual.Tipo de ambiente</v>
+        <v>Param_activities_manual.Tipo_de_ambiente</v>
       </c>
       <c r="D31" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E31" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D31</f>
@@ -42013,18 +42022,18 @@
     <row r="32" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="167"/>
       <c r="B32" s="138" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C32" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B32</f>
-        <v>Param_activities_manual.Tipo Proveedor</v>
+        <v>Param_activities_manual.Tipo_Proveedor</v>
       </c>
       <c r="D32" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E32" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D32</f>
-        <v>Tipo de Servicio </v>
+        <v>Tipo de Servicio</v>
       </c>
       <c r="F32" s="144"/>
       <c r="G32" s="139" t="n">
@@ -42044,7 +42053,7 @@
         <v>Param_activities_manual.Proveedor</v>
       </c>
       <c r="D33" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E33" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D33</f>
@@ -42061,14 +42070,14 @@
     <row r="34" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="167"/>
       <c r="B34" s="138" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C34" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B34</f>
-        <v>Param_activities_manual.EndPoint/Nombre del metodo</v>
+        <v>Param_activities_manual.EndPoint_Nombre del metodo</v>
       </c>
       <c r="D34" s="191" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E34" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D34</f>
@@ -42092,7 +42101,7 @@
         <v>Param_activities_manual.Comentarios</v>
       </c>
       <c r="D35" s="170" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E35" s="192" t="str">
         <f aca="false">+'2. Zona Cruda'!D35</f>
@@ -42108,25 +42117,25 @@
     </row>
     <row r="36" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="195" t="s">
         <v>202</v>
-      </c>
-      <c r="B36" s="195" t="s">
-        <v>203</v>
       </c>
       <c r="C36" s="195"/>
       <c r="D36" s="196" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="197" t="s">
+      <c r="F36" s="176" t="s">
         <v>205</v>
-      </c>
-      <c r="F36" s="176" t="s">
-        <v>206</v>
       </c>
       <c r="G36" s="176"/>
       <c r="H36" s="176"/>
       <c r="I36" s="176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J36" s="177"/>
     </row>
@@ -42322,8 +42331,8 @@
   </sheetPr>
   <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G34" activeCellId="0" sqref="G34"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42335,7 +42344,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="31.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="147" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="147" width="17.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="147" width="14.45"/>
@@ -42343,7 +42352,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="180" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
@@ -42376,17 +42385,17 @@
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="182" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B4" s="202" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C4" s="202"/>
       <c r="D4" s="202"/>
       <c r="E4" s="202"/>
       <c r="F4" s="202"/>
       <c r="G4" s="150" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H4" s="183" t="n">
         <v>2</v>
@@ -42398,7 +42407,7 @@
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B5" s="203" t="s">
         <v>42</v>
@@ -42420,17 +42429,17 @@
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="185" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B6" s="204" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C6" s="204"/>
       <c r="D6" s="204"/>
       <c r="E6" s="204"/>
       <c r="F6" s="204"/>
       <c r="G6" s="150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H6" s="186"/>
       <c r="I6" s="186"/>
@@ -42440,7 +42449,7 @@
     </row>
     <row r="7" customFormat="false" ht="11.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="205" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B7" s="206" t="s">
         <v>113</v>
@@ -42448,40 +42457,40 @@
       <c r="C7" s="206"/>
       <c r="D7" s="206"/>
       <c r="E7" s="206" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F7" s="206" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G7" s="206" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H7" s="206" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I7" s="206" t="s">
         <v>118</v>
       </c>
       <c r="J7" s="206" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K7" s="206" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L7" s="207" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="205"/>
       <c r="B8" s="208" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C8" s="208" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D8" s="208" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E8" s="206"/>
       <c r="F8" s="206"/>
@@ -42495,19 +42504,19 @@
     <row r="9" s="162" customFormat="true" ht="80.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="205"/>
       <c r="B9" s="209" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C9" s="209" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D9" s="209" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E9" s="209" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F9" s="209" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G9" s="209" t="s">
         <v>122</v>
@@ -42519,29 +42528,29 @@
         <v>125</v>
       </c>
       <c r="J9" s="209" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K9" s="209" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L9" s="210" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="163" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C10" s="211"/>
       <c r="D10" s="211"/>
       <c r="E10" s="49" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F10" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="213" t="s">
         <v>130</v>
@@ -42552,22 +42561,22 @@
       </c>
       <c r="J10" s="212"/>
       <c r="K10" s="214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L10" s="215"/>
     </row>
     <row r="11" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="167"/>
       <c r="B11" s="49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C11" s="216"/>
       <c r="D11" s="216"/>
       <c r="E11" s="49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F11" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G11" s="213" t="s">
         <v>157</v>
@@ -42577,7 +42586,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="193" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K11" s="217"/>
       <c r="L11" s="194"/>
@@ -42590,10 +42599,10 @@
       <c r="C12" s="216"/>
       <c r="D12" s="216"/>
       <c r="E12" s="49" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F12" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G12" s="213" t="s">
         <v>132</v>
@@ -42604,24 +42613,24 @@
       </c>
       <c r="J12" s="193"/>
       <c r="K12" s="172" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L12" s="194"/>
     </row>
     <row r="13" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="167" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C13" s="216"/>
       <c r="D13" s="216"/>
       <c r="E13" s="49" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F13" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G13" s="213" t="s">
         <v>165</v>
@@ -42631,7 +42640,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K13" s="193"/>
       <c r="L13" s="194"/>
@@ -42639,15 +42648,15 @@
     <row r="14" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="167"/>
       <c r="B14" s="49" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C14" s="216"/>
       <c r="D14" s="216"/>
       <c r="E14" s="49" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F14" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G14" s="213" t="s">
         <v>174</v>
@@ -42657,7 +42666,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K14" s="193"/>
       <c r="L14" s="194"/>
@@ -42665,15 +42674,15 @@
     <row r="15" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="167"/>
       <c r="B15" s="49" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C15" s="216"/>
       <c r="D15" s="216"/>
       <c r="E15" s="49" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F15" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G15" s="213" t="s">
         <v>176</v>
@@ -42683,7 +42692,7 @@
         <v>50</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K15" s="193"/>
       <c r="L15" s="194"/>
@@ -42691,25 +42700,25 @@
     <row r="16" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="167"/>
       <c r="B16" s="49" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C16" s="216"/>
       <c r="D16" s="216"/>
       <c r="E16" s="49" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F16" s="212" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G16" s="140" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H16" s="191"/>
       <c r="I16" s="172" t="n">
         <v>1</v>
       </c>
       <c r="J16" s="193" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K16" s="193"/>
       <c r="L16" s="194"/>
@@ -42717,15 +42726,15 @@
     <row r="17" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="167"/>
       <c r="B17" s="49" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C17" s="216"/>
       <c r="D17" s="216"/>
       <c r="E17" s="49" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F17" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G17" s="192" t="s">
         <v>137</v>
@@ -42735,7 +42744,7 @@
         <v>200</v>
       </c>
       <c r="J17" s="193" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K17" s="193"/>
       <c r="L17" s="194"/>
@@ -42749,10 +42758,10 @@
       <c r="C18" s="216"/>
       <c r="D18" s="216"/>
       <c r="E18" s="49" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F18" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G18" s="192" t="s">
         <v>140</v>
@@ -42762,7 +42771,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="193" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K18" s="193"/>
       <c r="L18" s="194"/>
@@ -42776,10 +42785,10 @@
       <c r="C19" s="216"/>
       <c r="D19" s="216"/>
       <c r="E19" s="49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F19" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G19" s="192" t="s">
         <v>144</v>
@@ -42789,7 +42798,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="193" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K19" s="193"/>
       <c r="L19" s="194"/>
@@ -42803,10 +42812,10 @@
       <c r="C20" s="216"/>
       <c r="D20" s="216"/>
       <c r="E20" s="49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F20" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G20" s="192" t="s">
         <v>146</v>
@@ -42816,7 +42825,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="193" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K20" s="193"/>
       <c r="L20" s="194"/>
@@ -42830,47 +42839,47 @@
       <c r="C21" s="216"/>
       <c r="D21" s="216"/>
       <c r="E21" s="49" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" s="212" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G21" s="140" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H21" s="191"/>
       <c r="I21" s="172" t="n">
         <v>2</v>
       </c>
       <c r="J21" s="193" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K21" s="193"/>
       <c r="L21" s="194"/>
     </row>
     <row r="22" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="174" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="195" t="s">
         <v>202</v>
-      </c>
-      <c r="B22" s="195" t="s">
-        <v>203</v>
       </c>
       <c r="C22" s="195"/>
       <c r="D22" s="195"/>
       <c r="E22" s="176"/>
       <c r="F22" s="196" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="197" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="197" t="s">
+      <c r="H22" s="176" t="s">
         <v>205</v>
-      </c>
-      <c r="H22" s="176" t="s">
-        <v>206</v>
       </c>
       <c r="I22" s="176"/>
       <c r="J22" s="176"/>
       <c r="K22" s="176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L22" s="177"/>
       <c r="M22" s="178"/>

--- a/TechieDelight/DT_Parametria_HB_Activities.xlsx
+++ b/TechieDelight/DT_Parametria_HB_Activities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Intro." sheetId="1" state="visible" r:id="rId2"/>
@@ -818,7 +818,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="368">
   <si>
     <t xml:space="preserve">ITEM</t>
   </si>
@@ -1522,7 +1522,10 @@
     <t xml:space="preserve">Habilitada</t>
   </si>
   <si>
-    <t xml:space="preserve">INT</t>
+    <t xml:space="preserve">DECIMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,2</t>
   </si>
   <si>
     <t xml:space="preserve">Componente_FQN</t>
@@ -1640,6 +1643,9 @@
   </si>
   <si>
     <t xml:space="preserve">can_GES_param_actividades_backoffice.Habilitada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INT</t>
   </si>
   <si>
     <t xml:space="preserve">si viene de Actividades poner "1"</t>
@@ -1871,9 +1877,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plurianual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DECIMAL</t>
   </si>
   <si>
     <t xml:space="preserve">UNISYS (BSJ,BER,BSC)</t>
@@ -4962,9 +4965,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>113040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4974,7 +4977,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="191520" y="2514600"/>
-          <a:ext cx="1076040" cy="1980000"/>
+          <a:ext cx="1075680" cy="1979640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5069,9 +5072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>256320</xdr:colOff>
+      <xdr:colOff>255960</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5081,7 +5084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1354320" y="2514600"/>
-          <a:ext cx="1076040" cy="1980000"/>
+          <a:ext cx="1075680" cy="1979640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5195,9 +5198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>389520</xdr:colOff>
+      <xdr:colOff>389160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5207,7 +5210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2507400" y="2514600"/>
-          <a:ext cx="1076040" cy="1980000"/>
+          <a:ext cx="1075680" cy="1979640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5321,9 +5324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>522720</xdr:colOff>
+      <xdr:colOff>522360</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5333,7 +5336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3660480" y="2514600"/>
-          <a:ext cx="1076040" cy="1989720"/>
+          <a:ext cx="1075680" cy="1989360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5428,9 +5431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>665640</xdr:colOff>
+      <xdr:colOff>665280</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5440,7 +5443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4823280" y="2514600"/>
-          <a:ext cx="1075680" cy="1980000"/>
+          <a:ext cx="1075320" cy="1979640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5535,9 +5538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>199440</xdr:rowOff>
+      <xdr:rowOff>199080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5547,7 +5550,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="191520" y="4514760"/>
-          <a:ext cx="4535640" cy="485280"/>
+          <a:ext cx="4535280" cy="484920"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5612,9 +5615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2148480</xdr:colOff>
+      <xdr:colOff>2148120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5628,7 +5631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="986040" y="1945440"/>
-          <a:ext cx="11784600" cy="2216520"/>
+          <a:ext cx="11784240" cy="2216160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5654,7 +5657,7 @@
       <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="93.63"/>
@@ -5826,14 +5829,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="31.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="20.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="10" style="147" width="14.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="218" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B1" s="218"/>
       <c r="C1" s="218"/>
@@ -5870,7 +5873,7 @@
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="182" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B4" s="202"/>
       <c r="C4" s="202"/>
@@ -5885,13 +5888,13 @@
     </row>
     <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B5" s="203"/>
       <c r="C5" s="203"/>
       <c r="D5" s="203"/>
       <c r="E5" s="150" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F5" s="184"/>
       <c r="G5" s="184"/>
@@ -5900,13 +5903,13 @@
     </row>
     <row r="6" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="182" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" s="203"/>
       <c r="C6" s="203"/>
       <c r="D6" s="203"/>
       <c r="E6" s="150" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F6" s="184"/>
       <c r="G6" s="184"/>
@@ -5915,7 +5918,7 @@
     </row>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="185" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B7" s="221"/>
       <c r="C7" s="221"/>
@@ -5934,7 +5937,7 @@
       <c r="C8" s="223"/>
       <c r="D8" s="223"/>
       <c r="E8" s="150" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F8" s="224"/>
       <c r="G8" s="224"/>
@@ -5952,7 +5955,7 @@
         <v>219</v>
       </c>
       <c r="D9" s="157" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E9" s="157" t="s">
         <v>220</v>
@@ -5973,7 +5976,7 @@
     <row r="10" s="162" customFormat="true" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="155"/>
       <c r="B10" s="187" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C10" s="188" t="s">
         <v>226</v>
@@ -6548,23 +6551,23 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.63"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="243" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C2" s="243"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="244" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C3" s="244" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="84.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6608,7 +6611,7 @@
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.91"/>
@@ -6646,7 +6649,7 @@
     <row r="2" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="250"/>
       <c r="B2" s="251" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C2" s="251"/>
       <c r="D2" s="251"/>
@@ -6704,19 +6707,19 @@
     <row r="4" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="250"/>
       <c r="B4" s="254" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C4" s="255" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D4" s="255" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E4" s="255" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F4" s="256" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G4" s="252"/>
       <c r="H4" s="248"/>
@@ -6745,16 +6748,16 @@
         <v>44378</v>
       </c>
       <c r="C5" s="258" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D5" s="259" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E5" s="260" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F5" s="261" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G5" s="252"/>
       <c r="H5" s="248"/>
@@ -34662,7 +34665,7 @@
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66015625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.54"/>
@@ -34672,42 +34675,42 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="269" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C1" s="270" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E1" s="270" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G1" s="270" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I1" s="270" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K1" s="270" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M1" s="270" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O1" s="270" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q1" s="271" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C2" s="272" t="s">
         <v>105</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G2" s="272" t="s">
         <v>60</v>
@@ -34716,82 +34719,82 @@
         <v>78</v>
       </c>
       <c r="K2" s="272" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M2" s="272" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="O2" s="272" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q2" s="273" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C3" s="272" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G3" s="272" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I3" s="272" t="s">
         <v>86</v>
       </c>
       <c r="K3" s="272" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M3" s="272" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O3" s="272" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q3" s="273" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="C4" s="272" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I4" s="272" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="K4" s="272" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M4" s="272" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O4" s="272" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="273" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C5" s="272" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="I5" s="272" t="s">
         <v>87</v>
@@ -34800,52 +34803,52 @@
         <v>103</v>
       </c>
       <c r="M5" s="272" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O5" s="272" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="273" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C6" s="272" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="I6" s="272" t="s">
         <v>88</v>
       </c>
       <c r="K6" s="272" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M6" s="272" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="O6" s="272" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q6" s="273"/>
     </row>
     <row r="7" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C7" s="272" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E7" s="272"/>
       <c r="I7" s="272" t="s">
         <v>89</v>
       </c>
       <c r="K7" s="272" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M7" s="272" t="s">
         <v>107</v>
@@ -34853,15 +34856,15 @@
     </row>
     <row r="8" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="I8" s="273" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I9" s="272" t="s">
         <v>93</v>
@@ -34869,18 +34872,18 @@
     </row>
     <row r="10" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C11" s="270" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D11" s="270" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34888,7 +34891,7 @@
         <v>199</v>
       </c>
       <c r="C12" s="272" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D12" s="272" t="s">
         <v>199</v>
@@ -34907,81 +34910,81 @@
     </row>
     <row r="14" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C14" s="272" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D14" s="272" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="E14" s="272" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C15" s="272" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D15" s="272" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C16" s="272" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D16" s="272" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C17" s="272" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D17" s="272" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C18" s="272" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="D18" s="272" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C19" s="272" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D19" s="272" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="274" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34992,7 +34995,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="275" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C25" s="272"/>
     </row>
@@ -40305,7 +40308,7 @@
   </sheetPr>
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -41329,8 +41332,8 @@
   </sheetPr>
   <dimension ref="A1:T37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="12.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41342,7 +41345,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="147" width="40.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="17.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="147" width="14.45"/>
@@ -41568,8 +41571,8 @@
         <v>Actividad habilitada (1 = si / null= no)</v>
       </c>
       <c r="F11" s="144"/>
-      <c r="G11" s="172" t="n">
-        <v>1</v>
+      <c r="G11" s="172" t="s">
+        <v>234</v>
       </c>
       <c r="H11" s="193"/>
       <c r="I11" s="172"/>
@@ -41578,7 +41581,7 @@
     <row r="12" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="167"/>
       <c r="B12" s="138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C12" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B12</f>
@@ -41602,7 +41605,7 @@
     <row r="13" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="167"/>
       <c r="B13" s="138" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C13" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B13</f>
@@ -41626,7 +41629,7 @@
     <row r="14" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="167"/>
       <c r="B14" s="138" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C14" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B14</f>
@@ -41650,7 +41653,7 @@
     <row r="15" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="167"/>
       <c r="B15" s="138" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C15" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B15</f>
@@ -41674,14 +41677,14 @@
     <row r="16" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="167"/>
       <c r="B16" s="138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C16" s="190" t="str">
         <f aca="false">+$B$4&amp;"."&amp;'2. Zona Cruda'!B16</f>
         <v>Param_BackOffice_activities_manual.AUDITABLE</v>
       </c>
       <c r="D16" s="191" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E16" s="140" t="s">
         <v>147</v>
@@ -41798,7 +41801,7 @@
         <v>216</v>
       </c>
       <c r="B23" s="152" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C23" s="152"/>
       <c r="D23" s="152"/>
@@ -41924,7 +41927,7 @@
     <row r="28" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="167"/>
       <c r="B28" s="138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C28" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B28</f>
@@ -41998,7 +42001,7 @@
     <row r="31" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="167"/>
       <c r="B31" s="138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C31" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B31</f>
@@ -42070,7 +42073,7 @@
     <row r="34" customFormat="false" ht="34" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="167"/>
       <c r="B34" s="138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C34" s="190" t="str">
         <f aca="false">+$B$22&amp;"."&amp;'2. Zona Cruda'!B34</f>
@@ -42344,7 +42347,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="147" width="31.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="147" width="26.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="147" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="147" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="147" width="20.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="147" width="17.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="147" width="14.45"/>
@@ -42352,7 +42355,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="180" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B1" s="180"/>
       <c r="C1" s="180"/>
@@ -42385,10 +42388,10 @@
     </row>
     <row r="4" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="182" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B4" s="202" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C4" s="202"/>
       <c r="D4" s="202"/>
@@ -42407,7 +42410,7 @@
     </row>
     <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="182" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B5" s="203" t="s">
         <v>42</v>
@@ -42429,10 +42432,10 @@
     </row>
     <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="185" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B6" s="204" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C6" s="204"/>
       <c r="D6" s="204"/>
@@ -42484,13 +42487,13 @@
     <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="205"/>
       <c r="B8" s="208" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C8" s="208" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="208" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E8" s="206"/>
       <c r="F8" s="206"/>
@@ -42504,13 +42507,13 @@
     <row r="9" s="162" customFormat="true" ht="80.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="205"/>
       <c r="B9" s="209" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C9" s="209" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D9" s="209" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E9" s="209" t="s">
         <v>226</v>
@@ -42542,12 +42545,12 @@
         <v>198</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C10" s="211"/>
       <c r="D10" s="211"/>
       <c r="E10" s="49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F10" s="212" t="s">
         <v>203</v>
@@ -42568,12 +42571,12 @@
     <row r="11" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="167"/>
       <c r="B11" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C11" s="216"/>
       <c r="D11" s="216"/>
       <c r="E11" s="49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F11" s="212" t="s">
         <v>203</v>
@@ -42586,7 +42589,7 @@
         <v>20</v>
       </c>
       <c r="J11" s="193" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K11" s="217"/>
       <c r="L11" s="194"/>
@@ -42599,7 +42602,7 @@
       <c r="C12" s="216"/>
       <c r="D12" s="216"/>
       <c r="E12" s="49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F12" s="212" t="s">
         <v>203</v>
@@ -42613,21 +42616,21 @@
       </c>
       <c r="J12" s="193"/>
       <c r="K12" s="172" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L12" s="194"/>
     </row>
     <row r="13" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="167" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B13" s="49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C13" s="216"/>
       <c r="D13" s="216"/>
       <c r="E13" s="49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F13" s="212" t="s">
         <v>203</v>
@@ -42640,7 +42643,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="193" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K13" s="193"/>
       <c r="L13" s="194"/>
@@ -42648,12 +42651,12 @@
     <row r="14" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="167"/>
       <c r="B14" s="49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C14" s="216"/>
       <c r="D14" s="216"/>
       <c r="E14" s="49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F14" s="212" t="s">
         <v>203</v>
@@ -42666,7 +42669,7 @@
         <v>100</v>
       </c>
       <c r="J14" s="193" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K14" s="193"/>
       <c r="L14" s="194"/>
@@ -42674,12 +42677,12 @@
     <row r="15" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="167"/>
       <c r="B15" s="49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C15" s="216"/>
       <c r="D15" s="216"/>
       <c r="E15" s="49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F15" s="212" t="s">
         <v>203</v>
@@ -42692,7 +42695,7 @@
         <v>50</v>
       </c>
       <c r="J15" s="193" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K15" s="193"/>
       <c r="L15" s="194"/>
@@ -42700,15 +42703,15 @@
     <row r="16" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="167"/>
       <c r="B16" s="49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C16" s="216"/>
       <c r="D16" s="216"/>
       <c r="E16" s="49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F16" s="212" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="G16" s="140" t="s">
         <v>200</v>
@@ -42718,7 +42721,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="193" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K16" s="193"/>
       <c r="L16" s="194"/>
@@ -42726,12 +42729,12 @@
     <row r="17" customFormat="false" ht="27.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="167"/>
       <c r="B17" s="49" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C17" s="216"/>
       <c r="D17" s="216"/>
       <c r="E17" s="49" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F17" s="212" t="s">
         <v>203</v>
@@ -42744,7 +42747,7 @@
         <v>200</v>
       </c>
       <c r="J17" s="193" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K17" s="193"/>
       <c r="L17" s="194"/>
@@ -42758,7 +42761,7 @@
       <c r="C18" s="216"/>
       <c r="D18" s="216"/>
       <c r="E18" s="49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F18" s="212" t="s">
         <v>203</v>
@@ -42771,7 +42774,7 @@
         <v>100</v>
       </c>
       <c r="J18" s="193" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K18" s="193"/>
       <c r="L18" s="194"/>
@@ -42785,7 +42788,7 @@
       <c r="C19" s="216"/>
       <c r="D19" s="216"/>
       <c r="E19" s="49" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F19" s="212" t="s">
         <v>203</v>
@@ -42798,7 +42801,7 @@
         <v>100</v>
       </c>
       <c r="J19" s="193" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K19" s="193"/>
       <c r="L19" s="194"/>
@@ -42812,7 +42815,7 @@
       <c r="C20" s="216"/>
       <c r="D20" s="216"/>
       <c r="E20" s="49" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F20" s="212" t="s">
         <v>203</v>
@@ -42825,7 +42828,7 @@
         <v>50</v>
       </c>
       <c r="J20" s="193" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K20" s="193"/>
       <c r="L20" s="194"/>
@@ -42839,20 +42842,20 @@
       <c r="C21" s="216"/>
       <c r="D21" s="216"/>
       <c r="E21" s="49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F21" s="212" t="s">
         <v>203</v>
       </c>
       <c r="G21" s="140" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H21" s="191"/>
       <c r="I21" s="172" t="n">
         <v>2</v>
       </c>
       <c r="J21" s="193" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K21" s="193"/>
       <c r="L21" s="194"/>
